--- a/DSTR-Project/docs/70-student-answer.xlsx
+++ b/DSTR-Project/docs/70-student-answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Documents\project\DSTR-Project\DSTR-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309E827-07F3-4C32-90D8-B5D18B164424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAD2F6-69F8-4FF7-9FFD-A8F137FA674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E45B5A7-7EF5-4C98-A28D-BA5B9A466A4C}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{9E45B5A7-7EF5-4C98-A28D-BA5B9A466A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,15 +376,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915F032-5CB6-4346-9F69-D31FBFCCD0A9}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>7001</v>
+        <v>1</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7002</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7003</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7004</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7005</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7006</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7007</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>0</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7008</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7009</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7010</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7011</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>0</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7012</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7013</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7014</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7015</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7016</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7017</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>0</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7018</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7019</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7020</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7021</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>0</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7022</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7023</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>0</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>7024</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>7025</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7026</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>0</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>7027</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7028</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>7029</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>7030</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>7031</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>0</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>7032</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>7033</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>7034</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>7035</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>7036</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>7037</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>7038</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>7039</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>7040</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>7041</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>7042</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7043</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7044</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7045</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>0</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>7046</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7047</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>7048</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>7049</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>7050</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>7051</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>7052</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>7053</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>7054</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>7055</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>7056</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>7057</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7058</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>7059</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7060</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>7061</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>7062</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>7063</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>7064</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7065</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>7066</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>7067</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7068</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>7069</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>7070</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
